--- a/files/list.xlsx
+++ b/files/list.xlsx
@@ -5,45 +5,22 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Exportsammanfattning" sheetId="1" r:id="rId4"/>
-    <sheet name="Sjömackar sverige Lista" sheetId="2" r:id="rId5"/>
-    <sheet name="Blad 1" sheetId="3" r:id="rId6"/>
+    <sheet name="Sjömackar sverige Lista" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
-  <si>
-    <t>Det här dokumentet exporterades från Numbers. Varje tabell konverterades till ett Excel-kalkylblad. Alla andra objekt på varje kalkylblad i Numbers lades på olika kalkylblad. Var medveten om att formelberäkningar kan bli annorlunda i Excel.</t>
-  </si>
-  <si>
-    <t>Namn på Numbers-blad</t>
-  </si>
-  <si>
-    <t>Namn på Numbers-tabell</t>
-  </si>
-  <si>
-    <t>Namn på Excel-kalkylblad</t>
-  </si>
-  <si>
-    <t>Sjömackar sverige Lista</t>
-  </si>
-  <si>
-    <t>Tabell 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
   <si>
     <t>Sjömack lista Länkar</t>
   </si>
   <si>
-    <t>184 st</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="13"/>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>GREEN PETROLEUM AB HÖNSÄTERS HAMN, HÄLLEKIS</t>
@@ -54,7 +31,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>GREEN PETROLEUM AB SJÖTORP</t>
@@ -65,7 +42,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ABBEKÅS SMÅBÅTS-HAMNS SJÖMACK</t>
@@ -76,7 +53,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ALMÖ LIVS SJÖMACK</t>
@@ -87,7 +64,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ÅLSTENS BÅTMACK / MACK OHLSON</t>
@@ -98,7 +75,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ÄNGELHOLMS SJÖMACK</t>
@@ -109,7 +86,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ARHOLMA SJÖMACK</t>
@@ -120,7 +97,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ARKÖSUNDS SJÖMACK</t>
@@ -131,7 +108,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>AXELSSON MARINS SJÖMACK</t>
@@ -142,7 +119,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>BÅSTAD HAMNS SJÖMACK</t>
@@ -153,7 +130,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>BÅT-SAMS SJÖMACK</t>
@@ -164,7 +141,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>BJÖRLANDA KILE SJÖMACK</t>
@@ -175,7 +152,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>BOCKHOLMENS MARIN OCH SJÖMACK</t>
@@ -186,7 +163,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>BÖDA GÄSTHAMNS DIESELMACK</t>
@@ -197,7 +174,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>BOHUS-BJÖRKÖ SJÖMACK</t>
@@ -208,7 +185,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>BOHUS-MALMÖNS BÅTMACK</t>
@@ -219,7 +196,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>BORGHOLMS GÄSTHAMNS SJÖMACK</t>
@@ -230,7 +207,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>BORKA SJÖMACK &amp; BRYGGA</t>
@@ -241,7 +218,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>BULLANDÖ SJÖMACK</t>
@@ -252,7 +229,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>CAFE &amp; TANKSTÄLLET I OSKARSHAMN</t>
@@ -263,7 +240,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>DALARÖVARVETS SJÖMACK</t>
@@ -274,7 +251,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>DIESELMACKEN LOMMA</t>
@@ -285,7 +262,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>DIN-X HELSINGBORG SJÖMACK</t>
@@ -296,7 +273,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>DONSÖ SJÖMACK, STATOIL, TAPPEN</t>
@@ -307,7 +284,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>DYRÖNS OLJOR/SJÖMACK</t>
@@ -318,7 +295,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ELVINA MARIN AB</t>
@@ -329,7 +306,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ENKÖPING OLJEEXPRESSEN SJÖMACK</t>
@@ -340,7 +317,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>FIGEHOLMS BÅTMACK</t>
@@ -351,7 +328,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>FJÄDERHOLMARNAS BÅTMACK</t>
@@ -362,7 +339,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>GETTERÖNS SJÖMACK</t>
@@ -373,7 +350,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>GISLÖVS LÄGE GÄSTHAMN</t>
@@ -384,7 +361,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>GOTTSKÄRS HAMN &amp; SJÖMACK</t>
@@ -395,7 +372,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>GRÄDDÖ SJÖMACK</t>
@@ -406,7 +383,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>GREEN PETROLEUM AB OTTERBÄCKEN</t>
@@ -417,7 +394,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>GREPEN MARIN BÅTMACKEN</t>
@@ -428,7 +405,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>GRINDA SJÖMACK</t>
@@ -439,7 +416,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>GRISSLEHAMNS SJÖMACK</t>
@@ -450,7 +427,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>GRUNDSUNDS MARINA &amp; SJÖMACK</t>
@@ -461,7 +438,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>GULF EKUDDEN MARINA</t>
@@ -472,7 +449,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>GULF MARSTRAND</t>
@@ -483,7 +460,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>GULF VAXHOLM</t>
@@ -494,7 +471,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>HALMSTADS DIESELMACK</t>
@@ -505,7 +482,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>HALMSTADS SJÖMACK</t>
@@ -516,7 +493,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>HAMBURGSUNDS DIESELMACK</t>
@@ -527,7 +504,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>HAPARANDAHAMNS DIESELMACK</t>
@@ -538,7 +515,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>HENÅNS BÅTMACK</t>
@@ -549,7 +526,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>HERRÄNGS BÅTMACK RESTAURANG &amp; KROG</t>
@@ -560,7 +537,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>HINSHOLMENS SJÖMACK</t>
@@ -571,7 +548,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>HÖGANÄS SJÖMACK</t>
@@ -582,7 +559,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>HÖLLVIKENS SJÖMACK</t>
@@ -593,7 +570,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>HÖRVIKENS SJÖMACK</t>
@@ -604,7 +581,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>HOTELLBRYGGANS SJÖMACK</t>
@@ -615,7 +592,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>HUDIKSVALLS SJÖMACK</t>
@@ -626,7 +603,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>HUNNEBOSTRANDS SJÖMACK</t>
@@ -637,7 +614,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>HUSARÖ HANDEL &amp; SJÖMACK</t>
@@ -648,7 +625,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ICA FYRENS SJÖMACK I VALDEMARSVIK</t>
@@ -659,7 +636,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ICA RÖRÖ STRANDKASSA SJÖMACK</t>
@@ -670,7 +647,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>INGMARSÖ BÅTMACK</t>
@@ -681,7 +658,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>JUNISKÄRS SJÖMACK</t>
@@ -692,7 +669,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>KÅGE SMÅBÅTSHAMN</t>
@@ -703,7 +680,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>KALMAR BÅTMACK</t>
@@ -714,7 +691,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>KARLSBORGS SJÖMACK</t>
@@ -725,7 +702,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>KARLSLUNDS BÅTMACK</t>
@@ -736,7 +713,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>KARÖBOLAGET AB SJÖMACK &amp; GÄSTHAMN</t>
@@ -747,7 +724,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>KÅSEBERGA DIESELMACK</t>
@@ -758,7 +735,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>KLINTEMÅLA SJÖMACK</t>
@@ -769,7 +746,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>KLINTSUNDET, NORRA LJUSTERÖ</t>
@@ -780,7 +757,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>KNIPPLA SKEPPSHANDELS SJÖMACK</t>
@@ -791,7 +768,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>KORNHALLS SJÖMACK</t>
@@ -802,7 +779,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>KYMENDÖ SJÖMACK</t>
@@ -813,7 +790,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>LÅDNA SJÖMACK</t>
@@ -824,7 +801,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>LANDSKRONAS SJÖMACK</t>
@@ -835,7 +812,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>LIMHAMNS DIESELMACK</t>
@@ -846,7 +823,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>LINANÄS GÄSTHAMN &amp; SJÖMACK</t>
@@ -857,7 +834,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>LÖGARÄNGSHAMNEN</t>
@@ -868,7 +845,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>LÖVSTAVIKENS DIESELMACK</t>
@@ -879,7 +856,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>LULEÅ SJÖMACK, GRANEC</t>
@@ -890,7 +867,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>MÄLARMARIN</t>
@@ -901,7 +878,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>MALMÖNS SJÖMACK</t>
@@ -912,7 +889,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>MARIESTADS SJÖMACK</t>
@@ -923,7 +900,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>MARINHUSETS SJÖMACK</t>
@@ -934,7 +911,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>MELLANFJÄRDENS DIESELMACK</t>
@@ -945,7 +922,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>MEM DIESELMACK</t>
@@ -956,7 +933,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>MÖJA BERGS SJÖMACK</t>
@@ -967,7 +944,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>MÖJA LÅNGVIKS SJÖMACK</t>
@@ -978,7 +955,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>MÖJASTRÖMS SJÖMACK</t>
@@ -989,7 +966,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>MOLLÖSUNDSTAPPEN</t>
@@ -1000,7 +977,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>MOSSHOLMENS MARINA SJÖMACKEN</t>
@@ -1011,7 +988,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>MOTALA SJÖMACK I SÖDRA HAMNEN AB</t>
@@ -1022,7 +999,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>MUSKÖ SJÖMACK</t>
@@ -1033,7 +1010,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>NÄMNDÖ SJÖMACK</t>
@@ -1044,7 +1021,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>NÄVEKVARNS SJÖMACK</t>
@@ -1055,7 +1032,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>NOGERSUNDS MARINAS BÅTMACK</t>
@@ -1066,7 +1043,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>NORRKÖPINGS SJÖMACK</t>
@@ -1077,7 +1054,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>NORRTÄLJE GÄSTHAMN</t>
@@ -1088,7 +1065,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>NYNÄSHAMNS SJÖMACK</t>
@@ -1099,7 +1076,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ÖCKERÖ HAMN</t>
@@ -1110,7 +1087,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>OKQ8 LIDINGÖ</t>
@@ -1121,7 +1098,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ÖREBRO SJÖMACK</t>
@@ -1132,7 +1109,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ÖREGRUNDS BÅTVARV &amp; BÅTMACK</t>
@@ -1143,7 +1120,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ORNÖ-MACKEN GULF</t>
@@ -1154,7 +1131,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>OXELÖSUNDS SJÖMACK</t>
@@ -1165,7 +1142,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>PAMPAS BÅTMACK</t>
@@ -1176,7 +1153,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>PIR 28</t>
@@ -1187,7 +1164,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>PREEM BJÖRNHOLMEN</t>
@@ -1198,7 +1175,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>PREEM SJÖMACK KARLSKRONA</t>
@@ -1209,7 +1186,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>PREEM VAXHOLM</t>
@@ -1220,7 +1197,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>QSTAR GRYTS SJÖMACK</t>
@@ -1231,7 +1208,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>RÖDLÖGABODENS SJÖMACK</t>
@@ -1242,7 +1219,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>RÖSHOLMENS SJÖMACK</t>
@@ -1253,7 +1230,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>S:T ANNA HANDELS SJÖMACK</t>
@@ -1264,7 +1241,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SANDARNE BÅTKLUBB &amp; SJÖMACK</t>
@@ -1275,7 +1252,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SIMRISHAMN MARINA SJÖMACKEN</t>
@@ -1286,7 +1263,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACK HÖGMARSÖ</t>
@@ -1297,7 +1274,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACK HÖNÖ KLÅVA</t>
@@ -1308,7 +1285,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN DYVIK MARINA</t>
@@ -1319,7 +1296,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN ELLÖS</t>
@@ -1330,7 +1307,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN FISKEBÄCKSKIL</t>
@@ -1341,7 +1318,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN GÄVLE, FLISKÄRSVARVET</t>
@@ -1352,7 +1329,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN GREBBESTAD</t>
@@ -1363,7 +1340,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN HOLMSUND</t>
@@ -1374,7 +1351,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN I ASKERSUND</t>
@@ -1385,7 +1362,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN I BOVALLSTRAND</t>
@@ -1396,7 +1373,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN I KARLSTAD</t>
@@ -1407,7 +1384,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN I LOFTAHAMMAR</t>
@@ -1418,7 +1395,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN I LYSEKIL</t>
@@ -1429,7 +1406,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN I NYKÖPINGS HAMN</t>
@@ -1440,7 +1417,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN I RÅÅ</t>
@@ -1451,7 +1428,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN I RÖNNÄNG</t>
@@ -1462,7 +1439,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN I SÄFFLES GÄSTHAMN</t>
@@ -1473,7 +1450,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN I SALTSJÖBADEN</t>
@@ -1484,7 +1461,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN I SANDHAMN</t>
@@ -1495,7 +1472,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN I VÄNERSBORG</t>
@@ -1506,7 +1483,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN LA MARINE ÅHUS</t>
@@ -1517,7 +1494,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN ÖREBRO</t>
@@ -1528,7 +1505,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN ÖRNSKÖLDSVIK</t>
@@ -1539,7 +1516,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN PITEÅ, OKQ8</t>
@@ -1550,7 +1527,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN RATAN</t>
@@ -1561,7 +1538,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN SANDSLÅN</t>
@@ -1572,7 +1549,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN SKELLEFTEHAMN</t>
@@ -1583,7 +1560,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SJÖMACKEN STABERG</t>
@@ -1594,7 +1571,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SKANSHOLMENS SJÖMACK</t>
@@ -1605,7 +1582,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SKÄRGÅRDSMACKEN GULF FURUSUND</t>
@@ -1616,7 +1593,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SKOKLOSTER MACKEN</t>
@@ -1627,7 +1604,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SKURUSUNDETS SJÖMACK</t>
@@ -1638,7 +1615,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SLAGSTA SJÖMACK</t>
@@ -1649,7 +1626,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SMEDJEBACKENS SJÖMACK</t>
@@ -1660,7 +1637,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SÖDERHAMNENS SJÖMACK</t>
@@ -1671,7 +1648,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SÖDERHAMNS SJÖMACK (PLANER FINNS FÖR ÖPPNING)</t>
@@ -1682,7 +1659,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SOLLENKROKA SJÖMACK</t>
@@ -1693,7 +1670,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SPIKEN SJÖMACK</t>
@@ -1704,7 +1681,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SPILL OIL SPILLERSBODA SJÖMACK</t>
@@ -1715,7 +1692,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ST1 BÅTMACK ECKERÖ KÄRINGSUND</t>
@@ -1726,7 +1703,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ST1 BÅTMACK HAMNSUNDET</t>
@@ -1737,7 +1714,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ST1 BÅTMACK HAVSVIDDEN</t>
@@ -1748,7 +1725,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ST1 BÅTMACK KASTELHOLMS GÄSTHAMN</t>
@@ -1759,7 +1736,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ST1 BÅTMACK KÖKAR HAVSPAVILJONGEN</t>
@@ -1770,7 +1747,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ST1 BÅTMACK KÖKAR SANDVIK GÄSTHAMN</t>
@@ -1781,7 +1758,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ST1 BÅTMACK KUMLINGE REMMARHAMN</t>
@@ -1792,7 +1769,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ST1 BÅTMACK ÖSTERHAMN MARIEHAMN</t>
@@ -1803,7 +1780,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ST1 BÅTMACK VÄSTERHAMN MARIEHAMN</t>
@@ -1814,7 +1791,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>STALLARHOLMENS SJÖMACK</t>
@@ -1825,7 +1802,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>STATOIL HAVSTENSSUND</t>
@@ -1836,7 +1813,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>STATOIL MARINA STYRSÖ</t>
@@ -1847,7 +1824,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>STATOIL SÖDERTÄLJE</t>
@@ -1858,7 +1835,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>STAVSNÄS MACKEN AB</t>
@@ -1869,7 +1846,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>STAVSUDDA SJÖMACK</t>
@@ -1880,7 +1857,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>STEGEBORGS SJÖMACK</t>
@@ -1891,7 +1868,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>STENUNGSUNDS SJÖMACK AB</t>
@@ -1902,7 +1879,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>STOCKA SJÖMACK &amp; GÄSTHAMN</t>
@@ -1913,7 +1890,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>STRÄNGNÄS BÅTMACK</t>
@@ -1924,7 +1901,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>STRÖMMA KANALS SJÖMACK</t>
@@ -1935,7 +1912,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>SUNDSVALLS SJÖMACK</t>
@@ -1946,7 +1923,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>TRÄSLÖVSLÄGE SJÖMACK</t>
@@ -1957,7 +1934,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>TROSA SJÖMACK</t>
@@ -1968,7 +1945,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>TYRISLÖT SJÖMACK</t>
@@ -1979,7 +1956,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ULVÖNS SJÖMACK</t>
@@ -1990,7 +1967,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>UPPSALAS BÅTMACK </t>
@@ -2001,7 +1978,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>UTÖ SJÖMACK</t>
@@ -2012,7 +1989,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>VADSTENA DIESELMACK</t>
@@ -2023,7 +2000,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>VÄSTERVIKS SJÖMACK</t>
@@ -2034,7 +2011,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>VISBY GÄSTHAMNS SJÖMACK</t>
@@ -2045,57 +2022,10 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>YSTADS GÄSTHAMNS BÅTMACK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.google.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>https://varvet.com</t>
-    </r>
-  </si>
-  <si>
-    <t>Blad 1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.test.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>www.ua.se</t>
     </r>
   </si>
 </sst>
@@ -2106,14 +2036,9 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -2121,12 +2046,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color indexed="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="15"/>
@@ -2142,11 +2061,11 @@
     <font>
       <u val="single"/>
       <sz val="12"/>
-      <color indexed="13"/>
+      <color indexed="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2159,26 +2078,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2188,121 +2089,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2312,68 +2108,23 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2393,15 +2144,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="015e88b1"/>
-      <rgbColor rgb="01eef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff0563c1"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2600,17 +2345,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2638,10 +2383,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2889,12 +2634,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -3181,7 +2926,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3209,10 +2954,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3463,1756 +3208,1671 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
-        <v>193</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="5">
-        <v>193</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D10" location="'Sjömackar sverige Lista'!R1C1" tooltip="" display="Sjömackar sverige Lista"/>
-    <hyperlink ref="D12" location="'Blad 1'!R2C1" tooltip="" display="Blad 1"/>
-  </hyperlinks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E185"/>
+  <dimension ref="A1:E184"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="10.8516" style="6" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="6" customWidth="1"/>
+    <col min="1" max="5" width="10.8516" style="1" customWidth="1"/>
+    <col min="6" max="256" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1">
-      <c r="A1" t="s" s="7">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" t="s" s="9">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" t="s" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="10">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="10">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="10">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="17" customHeight="1">
+      <c r="A11" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="s" s="10">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="17" customHeight="1">
+      <c r="A12" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" t="s" s="10">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="17" customHeight="1">
+      <c r="A13" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" t="s" s="10">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" ht="17" customHeight="1">
+      <c r="A14" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" t="s" s="10">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" ht="17" customHeight="1">
+      <c r="A15" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" t="s" s="10">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" ht="17" customHeight="1">
+      <c r="A16" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="17" customHeight="1">
-      <c r="A10" t="s" s="10">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" ht="17" customHeight="1">
+      <c r="A17" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" ht="17" customHeight="1">
-      <c r="A11" t="s" s="10">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" ht="17" customHeight="1">
+      <c r="A18" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" ht="17" customHeight="1">
-      <c r="A12" t="s" s="10">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" ht="17" customHeight="1">
+      <c r="A19" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" ht="17" customHeight="1">
-      <c r="A13" t="s" s="10">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" ht="17" customHeight="1">
+      <c r="A20" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" ht="17" customHeight="1">
-      <c r="A14" t="s" s="10">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" ht="17" customHeight="1">
+      <c r="A21" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" ht="17" customHeight="1">
-      <c r="A15" t="s" s="10">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" ht="17" customHeight="1">
+      <c r="A22" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" ht="17" customHeight="1">
-      <c r="A16" t="s" s="10">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" ht="17" customHeight="1">
+      <c r="A23" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" ht="17" customHeight="1">
-      <c r="A17" t="s" s="10">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" ht="17" customHeight="1">
+      <c r="A24" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" ht="17" customHeight="1">
-      <c r="A18" t="s" s="10">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" ht="17" customHeight="1">
+      <c r="A25" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" ht="17" customHeight="1">
-      <c r="A19" t="s" s="10">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" ht="17" customHeight="1">
+      <c r="A26" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" ht="17" customHeight="1">
-      <c r="A20" t="s" s="10">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" ht="17" customHeight="1">
+      <c r="A27" t="s" s="5">
         <v>26</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" ht="17" customHeight="1">
-      <c r="A21" t="s" s="10">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" ht="17" customHeight="1">
+      <c r="A28" t="s" s="5">
         <v>27</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" ht="17" customHeight="1">
-      <c r="A22" t="s" s="10">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" ht="17" customHeight="1">
+      <c r="A29" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" ht="17" customHeight="1">
-      <c r="A23" t="s" s="10">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" ht="17" customHeight="1">
+      <c r="A30" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" ht="17" customHeight="1">
-      <c r="A24" t="s" s="10">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" ht="17" customHeight="1">
+      <c r="A31" t="s" s="5">
         <v>30</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" ht="17" customHeight="1">
-      <c r="A25" t="s" s="10">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" ht="17" customHeight="1">
+      <c r="A32" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" ht="17" customHeight="1">
-      <c r="A26" t="s" s="10">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" ht="17" customHeight="1">
+      <c r="A33" t="s" s="5">
         <v>32</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" ht="17" customHeight="1">
-      <c r="A27" t="s" s="10">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" ht="17" customHeight="1">
+      <c r="A34" t="s" s="5">
         <v>33</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" ht="17" customHeight="1">
-      <c r="A28" t="s" s="10">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" ht="17" customHeight="1">
+      <c r="A35" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" ht="17" customHeight="1">
-      <c r="A29" t="s" s="10">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" ht="17" customHeight="1">
+      <c r="A36" t="s" s="5">
         <v>35</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" ht="17" customHeight="1">
-      <c r="A30" t="s" s="10">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" ht="17" customHeight="1">
+      <c r="A37" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" ht="17" customHeight="1">
-      <c r="A31" t="s" s="10">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" ht="17" customHeight="1">
+      <c r="A38" t="s" s="5">
         <v>37</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" ht="17" customHeight="1">
-      <c r="A32" t="s" s="10">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" ht="17" customHeight="1">
+      <c r="A39" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" ht="17" customHeight="1">
-      <c r="A33" t="s" s="10">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" ht="17" customHeight="1">
+      <c r="A40" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" ht="17" customHeight="1">
-      <c r="A34" t="s" s="10">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" ht="17" customHeight="1">
+      <c r="A41" t="s" s="5">
         <v>40</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" ht="17" customHeight="1">
-      <c r="A35" t="s" s="10">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" ht="17" customHeight="1">
+      <c r="A42" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" ht="17" customHeight="1">
-      <c r="A36" t="s" s="10">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" ht="17" customHeight="1">
+      <c r="A43" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" ht="17" customHeight="1">
-      <c r="A37" t="s" s="10">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" ht="17" customHeight="1">
+      <c r="A44" t="s" s="5">
         <v>43</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" ht="17" customHeight="1">
-      <c r="A38" t="s" s="10">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" ht="17" customHeight="1">
+      <c r="A45" t="s" s="5">
         <v>44</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" ht="17" customHeight="1">
-      <c r="A39" t="s" s="10">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" ht="17" customHeight="1">
+      <c r="A46" t="s" s="5">
         <v>45</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" ht="17" customHeight="1">
-      <c r="A40" t="s" s="10">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" ht="17" customHeight="1">
+      <c r="A47" t="s" s="5">
         <v>46</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" ht="17" customHeight="1">
-      <c r="A41" t="s" s="10">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" ht="17" customHeight="1">
+      <c r="A48" t="s" s="5">
         <v>47</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" ht="17" customHeight="1">
-      <c r="A42" t="s" s="10">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" ht="17" customHeight="1">
+      <c r="A49" t="s" s="5">
         <v>48</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" ht="17" customHeight="1">
-      <c r="A43" t="s" s="10">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" ht="17" customHeight="1">
+      <c r="A50" t="s" s="5">
         <v>49</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" ht="17" customHeight="1">
-      <c r="A44" t="s" s="10">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" ht="17" customHeight="1">
+      <c r="A51" t="s" s="5">
         <v>50</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" ht="17" customHeight="1">
-      <c r="A45" t="s" s="10">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" ht="17" customHeight="1">
+      <c r="A52" t="s" s="5">
         <v>51</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" ht="17" customHeight="1">
-      <c r="A46" t="s" s="10">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" ht="17" customHeight="1">
+      <c r="A53" t="s" s="5">
         <v>52</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" ht="17" customHeight="1">
-      <c r="A47" t="s" s="10">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" ht="17" customHeight="1">
+      <c r="A54" t="s" s="5">
         <v>53</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" ht="17" customHeight="1">
-      <c r="A48" t="s" s="10">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" ht="17" customHeight="1">
+      <c r="A55" t="s" s="5">
         <v>54</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" ht="17" customHeight="1">
-      <c r="A49" t="s" s="10">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" ht="17" customHeight="1">
+      <c r="A56" t="s" s="5">
         <v>55</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" ht="17" customHeight="1">
-      <c r="A50" t="s" s="10">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" ht="17" customHeight="1">
+      <c r="A57" t="s" s="5">
         <v>56</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" ht="17" customHeight="1">
-      <c r="A51" t="s" s="10">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" ht="17" customHeight="1">
+      <c r="A58" t="s" s="5">
         <v>57</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" ht="17" customHeight="1">
-      <c r="A52" t="s" s="10">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" ht="17" customHeight="1">
+      <c r="A59" t="s" s="5">
         <v>58</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53" ht="17" customHeight="1">
-      <c r="A53" t="s" s="10">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" ht="17" customHeight="1">
+      <c r="A60" t="s" s="5">
         <v>59</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" ht="17" customHeight="1">
-      <c r="A54" t="s" s="10">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" ht="17" customHeight="1">
+      <c r="A61" t="s" s="5">
         <v>60</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" ht="17" customHeight="1">
-      <c r="A55" t="s" s="10">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" ht="17" customHeight="1">
+      <c r="A62" t="s" s="5">
         <v>61</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-    </row>
-    <row r="56" ht="17" customHeight="1">
-      <c r="A56" t="s" s="10">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" ht="17" customHeight="1">
+      <c r="A63" t="s" s="5">
         <v>62</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" ht="17" customHeight="1">
-      <c r="A57" t="s" s="10">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" ht="17" customHeight="1">
+      <c r="A64" t="s" s="5">
         <v>63</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58" ht="17" customHeight="1">
-      <c r="A58" t="s" s="10">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" ht="17" customHeight="1">
+      <c r="A65" t="s" s="5">
         <v>64</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" ht="17" customHeight="1">
-      <c r="A59" t="s" s="10">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" ht="17" customHeight="1">
+      <c r="A66" t="s" s="5">
         <v>65</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" ht="17" customHeight="1">
-      <c r="A60" t="s" s="10">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" ht="17" customHeight="1">
+      <c r="A67" t="s" s="5">
         <v>66</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61" ht="17" customHeight="1">
-      <c r="A61" t="s" s="10">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" ht="17" customHeight="1">
+      <c r="A68" t="s" s="5">
         <v>67</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-    </row>
-    <row r="62" ht="17" customHeight="1">
-      <c r="A62" t="s" s="10">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" ht="17" customHeight="1">
+      <c r="A69" t="s" s="5">
         <v>68</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-    </row>
-    <row r="63" ht="17" customHeight="1">
-      <c r="A63" t="s" s="10">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" ht="17" customHeight="1">
+      <c r="A70" t="s" s="5">
         <v>69</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-    </row>
-    <row r="64" ht="17" customHeight="1">
-      <c r="A64" t="s" s="10">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" ht="17" customHeight="1">
+      <c r="A71" t="s" s="5">
         <v>70</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-    </row>
-    <row r="65" ht="17" customHeight="1">
-      <c r="A65" t="s" s="10">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" ht="17" customHeight="1">
+      <c r="A72" t="s" s="5">
         <v>71</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-    </row>
-    <row r="66" ht="17" customHeight="1">
-      <c r="A66" t="s" s="10">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" ht="17" customHeight="1">
+      <c r="A73" t="s" s="5">
         <v>72</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-    </row>
-    <row r="67" ht="17" customHeight="1">
-      <c r="A67" t="s" s="10">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" ht="17" customHeight="1">
+      <c r="A74" t="s" s="5">
         <v>73</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-    </row>
-    <row r="68" ht="17" customHeight="1">
-      <c r="A68" t="s" s="10">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" ht="17" customHeight="1">
+      <c r="A75" t="s" s="5">
         <v>74</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-    </row>
-    <row r="69" ht="17" customHeight="1">
-      <c r="A69" t="s" s="10">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" ht="17" customHeight="1">
+      <c r="A76" t="s" s="5">
         <v>75</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-    </row>
-    <row r="70" ht="17" customHeight="1">
-      <c r="A70" t="s" s="10">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" ht="17" customHeight="1">
+      <c r="A77" t="s" s="5">
         <v>76</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-    </row>
-    <row r="71" ht="17" customHeight="1">
-      <c r="A71" t="s" s="10">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" ht="17" customHeight="1">
+      <c r="A78" t="s" s="5">
         <v>77</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-    </row>
-    <row r="72" ht="17" customHeight="1">
-      <c r="A72" t="s" s="10">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" ht="17" customHeight="1">
+      <c r="A79" t="s" s="5">
         <v>78</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-    </row>
-    <row r="73" ht="17" customHeight="1">
-      <c r="A73" t="s" s="10">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" ht="17" customHeight="1">
+      <c r="A80" t="s" s="5">
         <v>79</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-    </row>
-    <row r="74" ht="17" customHeight="1">
-      <c r="A74" t="s" s="10">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" ht="17" customHeight="1">
+      <c r="A81" t="s" s="5">
         <v>80</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-    </row>
-    <row r="75" ht="17" customHeight="1">
-      <c r="A75" t="s" s="10">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" ht="17" customHeight="1">
+      <c r="A82" t="s" s="5">
         <v>81</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-    </row>
-    <row r="76" ht="17" customHeight="1">
-      <c r="A76" t="s" s="10">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" ht="17" customHeight="1">
+      <c r="A83" t="s" s="5">
         <v>82</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-    </row>
-    <row r="77" ht="17" customHeight="1">
-      <c r="A77" t="s" s="10">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" ht="17" customHeight="1">
+      <c r="A84" t="s" s="5">
         <v>83</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-    </row>
-    <row r="78" ht="17" customHeight="1">
-      <c r="A78" t="s" s="10">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" ht="17" customHeight="1">
+      <c r="A85" t="s" s="5">
         <v>84</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-    </row>
-    <row r="79" ht="17" customHeight="1">
-      <c r="A79" t="s" s="10">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" ht="17" customHeight="1">
+      <c r="A86" t="s" s="5">
         <v>85</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-    </row>
-    <row r="80" ht="17" customHeight="1">
-      <c r="A80" t="s" s="10">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" ht="17" customHeight="1">
+      <c r="A87" t="s" s="5">
         <v>86</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-    </row>
-    <row r="81" ht="17" customHeight="1">
-      <c r="A81" t="s" s="10">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" ht="17" customHeight="1">
+      <c r="A88" t="s" s="5">
         <v>87</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-    </row>
-    <row r="82" ht="17" customHeight="1">
-      <c r="A82" t="s" s="10">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" ht="17" customHeight="1">
+      <c r="A89" t="s" s="5">
         <v>88</v>
       </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-    </row>
-    <row r="83" ht="17" customHeight="1">
-      <c r="A83" t="s" s="10">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" ht="17" customHeight="1">
+      <c r="A90" t="s" s="5">
         <v>89</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-    </row>
-    <row r="84" ht="17" customHeight="1">
-      <c r="A84" t="s" s="10">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" ht="17" customHeight="1">
+      <c r="A91" t="s" s="5">
         <v>90</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-    </row>
-    <row r="85" ht="17" customHeight="1">
-      <c r="A85" t="s" s="10">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" ht="17" customHeight="1">
+      <c r="A92" t="s" s="5">
         <v>91</v>
       </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-    </row>
-    <row r="86" ht="17" customHeight="1">
-      <c r="A86" t="s" s="10">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" ht="17" customHeight="1">
+      <c r="A93" t="s" s="5">
         <v>92</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-    </row>
-    <row r="87" ht="17" customHeight="1">
-      <c r="A87" t="s" s="10">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" ht="17" customHeight="1">
+      <c r="A94" t="s" s="5">
         <v>93</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-    </row>
-    <row r="88" ht="17" customHeight="1">
-      <c r="A88" t="s" s="10">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" ht="17" customHeight="1">
+      <c r="A95" t="s" s="5">
         <v>94</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-    </row>
-    <row r="89" ht="17" customHeight="1">
-      <c r="A89" t="s" s="10">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" ht="17" customHeight="1">
+      <c r="A96" t="s" s="5">
         <v>95</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-    </row>
-    <row r="90" ht="17" customHeight="1">
-      <c r="A90" t="s" s="10">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" ht="17" customHeight="1">
+      <c r="A97" t="s" s="5">
         <v>96</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-    </row>
-    <row r="91" ht="17" customHeight="1">
-      <c r="A91" t="s" s="10">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" ht="17" customHeight="1">
+      <c r="A98" t="s" s="5">
         <v>97</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-    </row>
-    <row r="92" ht="17" customHeight="1">
-      <c r="A92" t="s" s="10">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" ht="17" customHeight="1">
+      <c r="A99" t="s" s="5">
         <v>98</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-    </row>
-    <row r="93" ht="17" customHeight="1">
-      <c r="A93" t="s" s="10">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" ht="17" customHeight="1">
+      <c r="A100" t="s" s="5">
         <v>99</v>
       </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-    </row>
-    <row r="94" ht="17" customHeight="1">
-      <c r="A94" t="s" s="10">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" ht="17" customHeight="1">
+      <c r="A101" t="s" s="5">
         <v>100</v>
       </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-    </row>
-    <row r="95" ht="17" customHeight="1">
-      <c r="A95" t="s" s="10">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" ht="17" customHeight="1">
+      <c r="A102" t="s" s="5">
         <v>101</v>
       </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-    </row>
-    <row r="96" ht="17" customHeight="1">
-      <c r="A96" t="s" s="10">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" ht="17" customHeight="1">
+      <c r="A103" t="s" s="5">
         <v>102</v>
       </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-    </row>
-    <row r="97" ht="17" customHeight="1">
-      <c r="A97" t="s" s="10">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" ht="17" customHeight="1">
+      <c r="A104" t="s" s="5">
         <v>103</v>
       </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-    </row>
-    <row r="98" ht="17" customHeight="1">
-      <c r="A98" t="s" s="10">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" ht="17" customHeight="1">
+      <c r="A105" t="s" s="5">
         <v>104</v>
       </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-    </row>
-    <row r="99" ht="17" customHeight="1">
-      <c r="A99" t="s" s="10">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" ht="17" customHeight="1">
+      <c r="A106" t="s" s="5">
         <v>105</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-    </row>
-    <row r="100" ht="17" customHeight="1">
-      <c r="A100" t="s" s="10">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" ht="17" customHeight="1">
+      <c r="A107" t="s" s="5">
         <v>106</v>
       </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-    </row>
-    <row r="101" ht="17" customHeight="1">
-      <c r="A101" t="s" s="10">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" ht="17" customHeight="1">
+      <c r="A108" t="s" s="5">
         <v>107</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-    </row>
-    <row r="102" ht="17" customHeight="1">
-      <c r="A102" t="s" s="10">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" ht="17" customHeight="1">
+      <c r="A109" t="s" s="5">
         <v>108</v>
       </c>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-    </row>
-    <row r="103" ht="17" customHeight="1">
-      <c r="A103" t="s" s="10">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" ht="17" customHeight="1">
+      <c r="A110" t="s" s="5">
         <v>109</v>
       </c>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-    </row>
-    <row r="104" ht="17" customHeight="1">
-      <c r="A104" t="s" s="10">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" ht="17" customHeight="1">
+      <c r="A111" t="s" s="5">
         <v>110</v>
       </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-    </row>
-    <row r="105" ht="17" customHeight="1">
-      <c r="A105" t="s" s="10">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" ht="17" customHeight="1">
+      <c r="A112" t="s" s="5">
         <v>111</v>
       </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-    </row>
-    <row r="106" ht="17" customHeight="1">
-      <c r="A106" t="s" s="10">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" ht="17" customHeight="1">
+      <c r="A113" t="s" s="5">
         <v>112</v>
       </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-    </row>
-    <row r="107" ht="17" customHeight="1">
-      <c r="A107" t="s" s="10">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" ht="17" customHeight="1">
+      <c r="A114" t="s" s="5">
         <v>113</v>
       </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-    </row>
-    <row r="108" ht="17" customHeight="1">
-      <c r="A108" t="s" s="10">
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" ht="17" customHeight="1">
+      <c r="A115" t="s" s="5">
         <v>114</v>
       </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-    </row>
-    <row r="109" ht="17" customHeight="1">
-      <c r="A109" t="s" s="10">
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" ht="17" customHeight="1">
+      <c r="A116" t="s" s="5">
         <v>115</v>
       </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-    </row>
-    <row r="110" ht="17" customHeight="1">
-      <c r="A110" t="s" s="10">
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" ht="17" customHeight="1">
+      <c r="A117" t="s" s="5">
         <v>116</v>
       </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-    </row>
-    <row r="111" ht="17" customHeight="1">
-      <c r="A111" t="s" s="10">
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" ht="17" customHeight="1">
+      <c r="A118" t="s" s="5">
         <v>117</v>
       </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-    </row>
-    <row r="112" ht="17" customHeight="1">
-      <c r="A112" t="s" s="10">
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" ht="17" customHeight="1">
+      <c r="A119" t="s" s="5">
         <v>118</v>
       </c>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-    </row>
-    <row r="113" ht="17" customHeight="1">
-      <c r="A113" t="s" s="10">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" ht="17" customHeight="1">
+      <c r="A120" t="s" s="5">
         <v>119</v>
       </c>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-    </row>
-    <row r="114" ht="17" customHeight="1">
-      <c r="A114" t="s" s="10">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" ht="17" customHeight="1">
+      <c r="A121" t="s" s="5">
         <v>120</v>
       </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-    </row>
-    <row r="115" ht="17" customHeight="1">
-      <c r="A115" t="s" s="10">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" ht="17" customHeight="1">
+      <c r="A122" t="s" s="5">
         <v>121</v>
       </c>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-    </row>
-    <row r="116" ht="17" customHeight="1">
-      <c r="A116" t="s" s="10">
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" ht="17" customHeight="1">
+      <c r="A123" t="s" s="5">
         <v>122</v>
       </c>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-    </row>
-    <row r="117" ht="17" customHeight="1">
-      <c r="A117" t="s" s="10">
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" ht="17" customHeight="1">
+      <c r="A124" t="s" s="5">
         <v>123</v>
       </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-    </row>
-    <row r="118" ht="17" customHeight="1">
-      <c r="A118" t="s" s="10">
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" ht="17" customHeight="1">
+      <c r="A125" t="s" s="5">
         <v>124</v>
       </c>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-    </row>
-    <row r="119" ht="17" customHeight="1">
-      <c r="A119" t="s" s="10">
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" ht="17" customHeight="1">
+      <c r="A126" t="s" s="5">
         <v>125</v>
       </c>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-    </row>
-    <row r="120" ht="17" customHeight="1">
-      <c r="A120" t="s" s="10">
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" ht="17" customHeight="1">
+      <c r="A127" t="s" s="5">
         <v>126</v>
       </c>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-    </row>
-    <row r="121" ht="17" customHeight="1">
-      <c r="A121" t="s" s="10">
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" ht="17" customHeight="1">
+      <c r="A128" t="s" s="5">
         <v>127</v>
       </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-    </row>
-    <row r="122" ht="17" customHeight="1">
-      <c r="A122" t="s" s="10">
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" ht="17" customHeight="1">
+      <c r="A129" t="s" s="5">
         <v>128</v>
       </c>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-    </row>
-    <row r="123" ht="17" customHeight="1">
-      <c r="A123" t="s" s="10">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" ht="17" customHeight="1">
+      <c r="A130" t="s" s="5">
         <v>129</v>
       </c>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-    </row>
-    <row r="124" ht="17" customHeight="1">
-      <c r="A124" t="s" s="10">
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" ht="17" customHeight="1">
+      <c r="A131" t="s" s="5">
         <v>130</v>
       </c>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-    </row>
-    <row r="125" ht="17" customHeight="1">
-      <c r="A125" t="s" s="10">
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" ht="17" customHeight="1">
+      <c r="A132" t="s" s="5">
         <v>131</v>
       </c>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-    </row>
-    <row r="126" ht="17" customHeight="1">
-      <c r="A126" t="s" s="10">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" ht="17" customHeight="1">
+      <c r="A133" t="s" s="5">
         <v>132</v>
       </c>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-    </row>
-    <row r="127" ht="17" customHeight="1">
-      <c r="A127" t="s" s="10">
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" ht="17" customHeight="1">
+      <c r="A134" t="s" s="5">
         <v>133</v>
       </c>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-    </row>
-    <row r="128" ht="17" customHeight="1">
-      <c r="A128" t="s" s="10">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" ht="17" customHeight="1">
+      <c r="A135" t="s" s="5">
         <v>134</v>
       </c>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-    </row>
-    <row r="129" ht="17" customHeight="1">
-      <c r="A129" t="s" s="10">
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" ht="17" customHeight="1">
+      <c r="A136" t="s" s="5">
         <v>135</v>
       </c>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-    </row>
-    <row r="130" ht="17" customHeight="1">
-      <c r="A130" t="s" s="10">
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" ht="17" customHeight="1">
+      <c r="A137" t="s" s="5">
         <v>136</v>
       </c>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-    </row>
-    <row r="131" ht="17" customHeight="1">
-      <c r="A131" t="s" s="10">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" ht="17" customHeight="1">
+      <c r="A138" t="s" s="5">
         <v>137</v>
       </c>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-    </row>
-    <row r="132" ht="17" customHeight="1">
-      <c r="A132" t="s" s="10">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" ht="17" customHeight="1">
+      <c r="A139" t="s" s="5">
         <v>138</v>
       </c>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-    </row>
-    <row r="133" ht="17" customHeight="1">
-      <c r="A133" t="s" s="10">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" ht="17" customHeight="1">
+      <c r="A140" t="s" s="5">
         <v>139</v>
       </c>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-    </row>
-    <row r="134" ht="17" customHeight="1">
-      <c r="A134" t="s" s="10">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" ht="17" customHeight="1">
+      <c r="A141" t="s" s="5">
         <v>140</v>
       </c>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-    </row>
-    <row r="135" ht="17" customHeight="1">
-      <c r="A135" t="s" s="10">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" ht="17" customHeight="1">
+      <c r="A142" t="s" s="5">
         <v>141</v>
       </c>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-    </row>
-    <row r="136" ht="17" customHeight="1">
-      <c r="A136" t="s" s="10">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" ht="17" customHeight="1">
+      <c r="A143" t="s" s="5">
         <v>142</v>
       </c>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-    </row>
-    <row r="137" ht="17" customHeight="1">
-      <c r="A137" t="s" s="10">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" ht="17" customHeight="1">
+      <c r="A144" t="s" s="5">
         <v>143</v>
       </c>
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-    </row>
-    <row r="138" ht="17" customHeight="1">
-      <c r="A138" t="s" s="10">
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" ht="17" customHeight="1">
+      <c r="A145" t="s" s="5">
         <v>144</v>
       </c>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-    </row>
-    <row r="139" ht="17" customHeight="1">
-      <c r="A139" t="s" s="10">
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" ht="17" customHeight="1">
+      <c r="A146" t="s" s="5">
         <v>145</v>
       </c>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-    </row>
-    <row r="140" ht="17" customHeight="1">
-      <c r="A140" t="s" s="10">
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" ht="17" customHeight="1">
+      <c r="A147" t="s" s="5">
         <v>146</v>
       </c>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-    </row>
-    <row r="141" ht="17" customHeight="1">
-      <c r="A141" t="s" s="10">
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" ht="17" customHeight="1">
+      <c r="A148" t="s" s="5">
         <v>147</v>
       </c>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-    </row>
-    <row r="142" ht="17" customHeight="1">
-      <c r="A142" t="s" s="10">
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" ht="17" customHeight="1">
+      <c r="A149" t="s" s="5">
         <v>148</v>
       </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-    </row>
-    <row r="143" ht="17" customHeight="1">
-      <c r="A143" t="s" s="10">
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" ht="17" customHeight="1">
+      <c r="A150" t="s" s="5">
         <v>149</v>
       </c>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-    </row>
-    <row r="144" ht="17" customHeight="1">
-      <c r="A144" t="s" s="10">
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" ht="17" customHeight="1">
+      <c r="A151" t="s" s="5">
         <v>150</v>
       </c>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-    </row>
-    <row r="145" ht="17" customHeight="1">
-      <c r="A145" t="s" s="10">
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" ht="17" customHeight="1">
+      <c r="A152" t="s" s="5">
         <v>151</v>
       </c>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-    </row>
-    <row r="146" ht="17" customHeight="1">
-      <c r="A146" t="s" s="10">
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" ht="17" customHeight="1">
+      <c r="A153" t="s" s="5">
         <v>152</v>
       </c>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-    </row>
-    <row r="147" ht="17" customHeight="1">
-      <c r="A147" t="s" s="10">
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" ht="17" customHeight="1">
+      <c r="A154" t="s" s="5">
         <v>153</v>
       </c>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-    </row>
-    <row r="148" ht="17" customHeight="1">
-      <c r="A148" t="s" s="10">
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" ht="17" customHeight="1">
+      <c r="A155" t="s" s="5">
         <v>154</v>
       </c>
-      <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-    </row>
-    <row r="149" ht="17" customHeight="1">
-      <c r="A149" t="s" s="10">
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" ht="17" customHeight="1">
+      <c r="A156" t="s" s="5">
         <v>155</v>
       </c>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-    </row>
-    <row r="150" ht="17" customHeight="1">
-      <c r="A150" t="s" s="10">
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" ht="17" customHeight="1">
+      <c r="A157" t="s" s="5">
         <v>156</v>
       </c>
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-    </row>
-    <row r="151" ht="17" customHeight="1">
-      <c r="A151" t="s" s="10">
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" ht="17" customHeight="1">
+      <c r="A158" t="s" s="5">
         <v>157</v>
       </c>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-    </row>
-    <row r="152" ht="17" customHeight="1">
-      <c r="A152" t="s" s="10">
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" ht="17" customHeight="1">
+      <c r="A159" t="s" s="5">
         <v>158</v>
       </c>
-      <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
-    </row>
-    <row r="153" ht="17" customHeight="1">
-      <c r="A153" t="s" s="10">
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" ht="17" customHeight="1">
+      <c r="A160" t="s" s="5">
         <v>159</v>
       </c>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-    </row>
-    <row r="154" ht="17" customHeight="1">
-      <c r="A154" t="s" s="10">
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" ht="17" customHeight="1">
+      <c r="A161" t="s" s="5">
         <v>160</v>
       </c>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-    </row>
-    <row r="155" ht="17" customHeight="1">
-      <c r="A155" t="s" s="10">
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" ht="17" customHeight="1">
+      <c r="A162" t="s" s="5">
         <v>161</v>
       </c>
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-    </row>
-    <row r="156" ht="17" customHeight="1">
-      <c r="A156" t="s" s="10">
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" ht="17" customHeight="1">
+      <c r="A163" t="s" s="5">
         <v>162</v>
       </c>
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-    </row>
-    <row r="157" ht="17" customHeight="1">
-      <c r="A157" t="s" s="10">
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" ht="17" customHeight="1">
+      <c r="A164" t="s" s="5">
         <v>163</v>
       </c>
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-    </row>
-    <row r="158" ht="17" customHeight="1">
-      <c r="A158" t="s" s="10">
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" ht="17" customHeight="1">
+      <c r="A165" t="s" s="5">
         <v>164</v>
       </c>
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-    </row>
-    <row r="159" ht="17" customHeight="1">
-      <c r="A159" t="s" s="10">
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" ht="17" customHeight="1">
+      <c r="A166" t="s" s="5">
         <v>165</v>
       </c>
-      <c r="B159" s="8"/>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-    </row>
-    <row r="160" ht="17" customHeight="1">
-      <c r="A160" t="s" s="10">
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" ht="17" customHeight="1">
+      <c r="A167" t="s" s="5">
         <v>166</v>
       </c>
-      <c r="B160" s="8"/>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-    </row>
-    <row r="161" ht="17" customHeight="1">
-      <c r="A161" t="s" s="10">
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" ht="17" customHeight="1">
+      <c r="A168" t="s" s="5">
         <v>167</v>
       </c>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-    </row>
-    <row r="162" ht="17" customHeight="1">
-      <c r="A162" t="s" s="10">
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" ht="17" customHeight="1">
+      <c r="A169" t="s" s="5">
         <v>168</v>
       </c>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-    </row>
-    <row r="163" ht="17" customHeight="1">
-      <c r="A163" t="s" s="10">
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+    </row>
+    <row r="170" ht="17" customHeight="1">
+      <c r="A170" t="s" s="5">
         <v>169</v>
       </c>
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-    </row>
-    <row r="164" ht="17" customHeight="1">
-      <c r="A164" t="s" s="10">
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" ht="17" customHeight="1">
+      <c r="A171" t="s" s="5">
         <v>170</v>
       </c>
-      <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-    </row>
-    <row r="165" ht="17" customHeight="1">
-      <c r="A165" t="s" s="10">
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+    </row>
+    <row r="172" ht="17" customHeight="1">
+      <c r="A172" t="s" s="5">
         <v>171</v>
       </c>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-    </row>
-    <row r="166" ht="17" customHeight="1">
-      <c r="A166" t="s" s="10">
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" ht="17" customHeight="1">
+      <c r="A173" t="s" s="5">
         <v>172</v>
       </c>
-      <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-    </row>
-    <row r="167" ht="17" customHeight="1">
-      <c r="A167" t="s" s="10">
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+    </row>
+    <row r="174" ht="17" customHeight="1">
+      <c r="A174" t="s" s="5">
         <v>173</v>
       </c>
-      <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-    </row>
-    <row r="168" ht="17" customHeight="1">
-      <c r="A168" t="s" s="10">
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+    </row>
+    <row r="175" ht="17" customHeight="1">
+      <c r="A175" t="s" s="5">
         <v>174</v>
       </c>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
-    </row>
-    <row r="169" ht="17" customHeight="1">
-      <c r="A169" t="s" s="10">
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+    </row>
+    <row r="176" ht="17" customHeight="1">
+      <c r="A176" t="s" s="5">
         <v>175</v>
       </c>
-      <c r="B169" s="8"/>
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
-    </row>
-    <row r="170" ht="17" customHeight="1">
-      <c r="A170" t="s" s="10">
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" ht="17" customHeight="1">
+      <c r="A177" t="s" s="5">
         <v>176</v>
       </c>
-      <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-    </row>
-    <row r="171" ht="17" customHeight="1">
-      <c r="A171" t="s" s="10">
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" ht="17" customHeight="1">
+      <c r="A178" t="s" s="5">
         <v>177</v>
       </c>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-    </row>
-    <row r="172" ht="17" customHeight="1">
-      <c r="A172" t="s" s="10">
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" ht="17" customHeight="1">
+      <c r="A179" t="s" s="5">
         <v>178</v>
       </c>
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
-    </row>
-    <row r="173" ht="17" customHeight="1">
-      <c r="A173" t="s" s="10">
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" ht="17" customHeight="1">
+      <c r="A180" t="s" s="5">
         <v>179</v>
       </c>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
-    </row>
-    <row r="174" ht="17" customHeight="1">
-      <c r="A174" t="s" s="10">
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" ht="17" customHeight="1">
+      <c r="A181" t="s" s="5">
         <v>180</v>
       </c>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-    </row>
-    <row r="175" ht="17" customHeight="1">
-      <c r="A175" t="s" s="10">
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+    </row>
+    <row r="182" ht="17" customHeight="1">
+      <c r="A182" t="s" s="5">
         <v>181</v>
       </c>
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-    </row>
-    <row r="176" ht="17" customHeight="1">
-      <c r="A176" t="s" s="10">
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+    </row>
+    <row r="183" ht="17" customHeight="1">
+      <c r="A183" t="s" s="5">
         <v>182</v>
       </c>
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-    </row>
-    <row r="177" ht="17" customHeight="1">
-      <c r="A177" t="s" s="10">
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+    </row>
+    <row r="184" ht="17" customHeight="1">
+      <c r="A184" t="s" s="5">
         <v>183</v>
       </c>
-      <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-    </row>
-    <row r="178" ht="17" customHeight="1">
-      <c r="A178" t="s" s="10">
-        <v>184</v>
-      </c>
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-    </row>
-    <row r="179" ht="17" customHeight="1">
-      <c r="A179" t="s" s="10">
-        <v>185</v>
-      </c>
-      <c r="B179" s="8"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
-    </row>
-    <row r="180" ht="17" customHeight="1">
-      <c r="A180" t="s" s="10">
-        <v>186</v>
-      </c>
-      <c r="B180" s="8"/>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
-    </row>
-    <row r="181" ht="17" customHeight="1">
-      <c r="A181" t="s" s="10">
-        <v>187</v>
-      </c>
-      <c r="B181" s="8"/>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
-    </row>
-    <row r="182" ht="17" customHeight="1">
-      <c r="A182" t="s" s="10">
-        <v>188</v>
-      </c>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-    </row>
-    <row r="183" ht="17" customHeight="1">
-      <c r="A183" t="s" s="10">
-        <v>189</v>
-      </c>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-    </row>
-    <row r="184" ht="17" customHeight="1">
-      <c r="A184" t="s" s="10">
-        <v>190</v>
-      </c>
-      <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-    </row>
-    <row r="185" ht="17" customHeight="1">
-      <c r="A185" t="s" s="10">
-        <v>191</v>
-      </c>
-      <c r="B185" s="8"/>
-      <c r="C185" s="8"/>
-      <c r="D185" t="s" s="9">
-        <v>192</v>
-      </c>
-      <c r="E185" s="8"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5399,8 +5059,6 @@
     <hyperlink ref="A182" r:id="rId181" location="" tooltip="" display="VÄSTERVIKS SJÖMACK"/>
     <hyperlink ref="A183" r:id="rId182" location="" tooltip="" display="VISBY GÄSTHAMNS SJÖMACK"/>
     <hyperlink ref="A184" r:id="rId183" location="" tooltip="" display="YSTADS GÄSTHAMNS BÅTMACK"/>
-    <hyperlink ref="A185" r:id="rId184" location="" tooltip="" display="http://www.google.com"/>
-    <hyperlink ref="D185" r:id="rId185" location="" tooltip="" display="https://varvet.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -5408,120 +5066,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="5" width="16.3516" style="11" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="19" customHeight="1">
-      <c r="A1" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" ht="16.55" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" ht="16.55" customHeight="1">
-      <c r="A3" t="s" s="14">
-        <v>194</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" ht="16.35" customHeight="1">
-      <c r="A4" t="s" s="17">
-        <v>195</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" ht="16.35" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" ht="16.35" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" ht="16.35" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" ht="16.35" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" ht="16.35" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" ht="16.35" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" ht="16.35" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="" tooltip="" display="http://www.test.com"/>
-    <hyperlink ref="A4" r:id="rId2" location="" tooltip="" display="www.ua.se"/>
-  </hyperlinks>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>